--- a/Fort/Fort_sector_weekly_variation.xlsx
+++ b/Fort/Fort_sector_weekly_variation.xlsx
@@ -463,7 +463,7 @@
         <v>-0.68</v>
       </c>
       <c r="D2" t="n">
-        <v>2.27</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>-0.64</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -495,7 +495,7 @@
         <v>0.39</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
@@ -511,7 +511,7 @@
         <v>2.29</v>
       </c>
       <c r="D5" t="n">
-        <v>2.41</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         <v>-0.44</v>
       </c>
       <c r="D6" t="n">
-        <v>1.1</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +559,7 @@
         <v>0.9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="9">
@@ -575,7 +575,7 @@
         <v>0.66</v>
       </c>
       <c r="D9" t="n">
-        <v>1.19</v>
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
